--- a/Code/Results/Cases/Case_0_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_230/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.11390412059696</v>
+        <v>13.46456841828631</v>
       </c>
       <c r="D2">
-        <v>4.061093232933072</v>
+        <v>7.237647162246065</v>
       </c>
       <c r="E2">
-        <v>8.584017405315835</v>
+        <v>14.00369035395992</v>
       </c>
       <c r="F2">
-        <v>41.85548735893411</v>
+        <v>47.40230617507002</v>
       </c>
       <c r="G2">
-        <v>2.049334093637857</v>
+        <v>3.711498604867593</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.578906601835331</v>
+        <v>11.29078040900474</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.219385051381543</v>
+        <v>9.595067975462907</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
-        <v>31.90081947306654</v>
+        <v>36.86143484149508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.72867609259789</v>
+        <v>13.44089697468744</v>
       </c>
       <c r="D3">
-        <v>4.06690575695516</v>
+        <v>7.249130751239073</v>
       </c>
       <c r="E3">
-        <v>8.456608809775243</v>
+        <v>14.02303258333937</v>
       </c>
       <c r="F3">
-        <v>39.73185140175299</v>
+        <v>47.12862184932456</v>
       </c>
       <c r="G3">
-        <v>2.061322818551235</v>
+        <v>3.715841198117702</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.530139374856496</v>
+        <v>11.31216645505469</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.249089042151907</v>
+        <v>9.615335707911068</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
-        <v>30.32349895012626</v>
+        <v>36.66990447118214</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.493916140802613</v>
+        <v>13.42938265462406</v>
       </c>
       <c r="D4">
-        <v>4.071688660301066</v>
+        <v>7.256736956642992</v>
       </c>
       <c r="E4">
-        <v>8.383509457200338</v>
+        <v>14.03716565015127</v>
       </c>
       <c r="F4">
-        <v>38.41366115092318</v>
+        <v>46.97262192089095</v>
       </c>
       <c r="G4">
-        <v>2.068845260548552</v>
+        <v>3.718646908430661</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.504182201759055</v>
+        <v>11.32691093684996</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.268968048287874</v>
+        <v>9.628643202279045</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
-        <v>29.34646043477579</v>
+        <v>36.56157404316777</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.398775910285584</v>
+        <v>13.42545186324604</v>
       </c>
       <c r="D5">
-        <v>4.073934024270385</v>
+        <v>7.259976432875316</v>
       </c>
       <c r="E5">
-        <v>8.354984036768439</v>
+        <v>14.04349205974699</v>
       </c>
       <c r="F5">
-        <v>37.87338115348211</v>
+        <v>46.91212518869624</v>
       </c>
       <c r="G5">
-        <v>2.071954618905775</v>
+        <v>3.719825436473566</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.494572589362393</v>
+        <v>11.33332499675198</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.277477016337255</v>
+        <v>9.634283630441059</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>28.94651463110345</v>
+        <v>36.51978946809245</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.383012360001004</v>
+        <v>13.42484518937866</v>
       </c>
       <c r="D6">
-        <v>4.074324513261605</v>
+        <v>7.260522802078719</v>
       </c>
       <c r="E6">
-        <v>8.350322923225912</v>
+        <v>14.04457679044532</v>
       </c>
       <c r="F6">
-        <v>37.78349701564654</v>
+        <v>46.90226669068161</v>
       </c>
       <c r="G6">
-        <v>2.072473669306182</v>
+        <v>3.720023258950126</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.493034414802368</v>
+        <v>11.33441453733451</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.278914450982316</v>
+        <v>9.635233371458524</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>28.88000778404223</v>
+        <v>36.51299456900767</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.492630798392867</v>
+        <v>13.42932655763089</v>
       </c>
       <c r="D7">
-        <v>4.071717753662051</v>
+        <v>7.256780078595019</v>
       </c>
       <c r="E7">
-        <v>8.383119674165032</v>
+        <v>14.03724867492417</v>
       </c>
       <c r="F7">
-        <v>38.40638659393312</v>
+        <v>46.97179353550058</v>
       </c>
       <c r="G7">
-        <v>2.068887012476698</v>
+        <v>3.718662659852912</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.504048727550009</v>
+        <v>11.32699579719412</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.269081156331053</v>
+        <v>9.628718389690167</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767602</v>
       </c>
       <c r="O7">
-        <v>29.34107335212786</v>
+        <v>36.56100092582795</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.980753728866796</v>
+        <v>13.45578106520091</v>
       </c>
       <c r="D8">
-        <v>4.062839761690798</v>
+        <v>7.241491624922625</v>
       </c>
       <c r="E8">
-        <v>8.53900580989991</v>
+        <v>14.00989090444787</v>
       </c>
       <c r="F8">
-        <v>41.1264668536547</v>
+        <v>47.30546942562952</v>
       </c>
       <c r="G8">
-        <v>2.053436427964479</v>
+        <v>3.712967095336765</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.561243372384032</v>
+        <v>11.2978193922245</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.229283669077931</v>
+        <v>9.601877470073127</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
-        <v>31.35891996200613</v>
+        <v>36.79349024983726</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.94934754712292</v>
+        <v>13.53150781846182</v>
       </c>
       <c r="D9">
-        <v>4.055516174901308</v>
+        <v>7.215904769877893</v>
       </c>
       <c r="E9">
-        <v>8.886691575659766</v>
+        <v>13.97416704116737</v>
       </c>
       <c r="F9">
-        <v>46.33335093106566</v>
+        <v>48.05310487567979</v>
       </c>
       <c r="G9">
-        <v>2.024249935423014</v>
+        <v>3.702897338804882</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.706651932792501</v>
+        <v>11.25341156141802</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.164482630794801</v>
+        <v>9.556067829806155</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>35.23755348249409</v>
+        <v>37.32147138025261</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.66590198148695</v>
+        <v>13.60149387191252</v>
       </c>
       <c r="D10">
-        <v>4.05700571495256</v>
+        <v>7.199768752099516</v>
       </c>
       <c r="E10">
-        <v>9.169775348812594</v>
+        <v>13.95886894994027</v>
       </c>
       <c r="F10">
-        <v>50.07337520216611</v>
+        <v>48.65592705651245</v>
       </c>
       <c r="G10">
-        <v>2.003219411829344</v>
+        <v>3.696160297802366</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.836186664879546</v>
+        <v>11.22860026253219</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.125299599221442</v>
+        <v>9.526541753109306</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>38.03338365255878</v>
+        <v>37.75110129544031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.99303630317455</v>
+        <v>13.63639464457916</v>
       </c>
       <c r="D11">
-        <v>4.059366800831247</v>
+        <v>7.193002898745464</v>
       </c>
       <c r="E11">
-        <v>9.305114312806552</v>
+        <v>13.95428940830525</v>
       </c>
       <c r="F11">
-        <v>51.7577223774899</v>
+        <v>48.9409917901105</v>
       </c>
       <c r="G11">
-        <v>1.993672159712702</v>
+        <v>3.693237113820094</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.900651585632711</v>
+        <v>11.21901114985897</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.109396815245102</v>
+        <v>9.513999979181243</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>39.29468326108147</v>
+        <v>37.95507418711843</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.1171270068013</v>
+        <v>13.65004563244606</v>
       </c>
       <c r="D12">
-        <v>4.060522038384121</v>
+        <v>7.190523199770567</v>
       </c>
       <c r="E12">
-        <v>9.357364599240015</v>
+        <v>13.95289744902877</v>
       </c>
       <c r="F12">
-        <v>52.39343019045209</v>
+        <v>49.05042410277704</v>
       </c>
       <c r="G12">
-        <v>1.990052867410974</v>
+        <v>3.692150384744215</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.925917166654914</v>
+        <v>11.21562416779603</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.103660336622194</v>
+        <v>9.509378190022858</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>39.77104102129682</v>
+        <v>38.03349089720398</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.09039136540196</v>
+        <v>13.64708640699695</v>
       </c>
       <c r="D13">
-        <v>4.060261285962687</v>
+        <v>7.191053586948757</v>
       </c>
       <c r="E13">
-        <v>9.346066039623011</v>
+        <v>13.95318201306632</v>
       </c>
       <c r="F13">
-        <v>52.25660621302294</v>
+        <v>49.02679108287216</v>
       </c>
       <c r="G13">
-        <v>1.990832641745608</v>
+        <v>3.692383534264153</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.920436778903878</v>
+        <v>11.21634275281289</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.104882928732796</v>
+        <v>9.510367911024268</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>39.66849992392704</v>
+        <v>38.01655095156429</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.00324070004437</v>
+        <v>13.63750904012103</v>
       </c>
       <c r="D14">
-        <v>4.059456488980449</v>
+        <v>7.192797242649865</v>
       </c>
       <c r="E14">
-        <v>9.30939255850331</v>
+        <v>13.9541680327443</v>
       </c>
       <c r="F14">
-        <v>51.81006237838758</v>
+        <v>48.9499655354394</v>
       </c>
       <c r="G14">
-        <v>1.993374520133974</v>
+        <v>3.693147303550136</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.90271272325312</v>
+        <v>11.21872760616853</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.108919091189098</v>
+        <v>9.51361718886073</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>39.33389704149289</v>
+        <v>37.96150229263616</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.94988788485934</v>
+        <v>13.63169907231224</v>
       </c>
       <c r="D15">
-        <v>4.058998154471827</v>
+        <v>7.193876004016351</v>
       </c>
       <c r="E15">
-        <v>9.287061156819941</v>
+        <v>13.95481656350242</v>
       </c>
       <c r="F15">
-        <v>51.53627831990374</v>
+        <v>48.90309874599514</v>
       </c>
       <c r="G15">
-        <v>1.994930760280363</v>
+        <v>3.693617763188286</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.891969306717838</v>
+        <v>11.22022020260255</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.111428841328337</v>
+        <v>9.515624057686194</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>39.12878746018191</v>
+        <v>37.92793509483962</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.6445495222428</v>
+        <v>13.59927419815448</v>
       </c>
       <c r="D16">
-        <v>4.05688685027918</v>
+        <v>7.20022245727421</v>
       </c>
       <c r="E16">
-        <v>9.161067263770075</v>
+        <v>13.95921612271155</v>
       </c>
       <c r="F16">
-        <v>49.9629809497613</v>
+        <v>48.63750923685408</v>
       </c>
       <c r="G16">
-        <v>2.003843185583775</v>
+        <v>3.696354171180194</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.832089935874705</v>
+        <v>11.22926110294041</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.126378313003204</v>
+        <v>9.527379254438854</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>37.95076073173999</v>
+        <v>37.73793862966065</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.45755491229236</v>
+        <v>13.58016340057848</v>
       </c>
       <c r="D17">
-        <v>4.056035461710633</v>
+        <v>7.204262780214568</v>
       </c>
       <c r="E17">
-        <v>9.085491682362136</v>
+        <v>13.96252464355456</v>
       </c>
       <c r="F17">
-        <v>48.99363632128573</v>
+        <v>48.4773028658658</v>
       </c>
       <c r="G17">
-        <v>2.009311183827143</v>
+        <v>3.698069022147965</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.796813136149995</v>
+        <v>11.23524228606841</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.136047702369987</v>
+        <v>9.534818266726242</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>37.22551412741669</v>
+        <v>37.62353220979354</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.35010616744016</v>
+        <v>13.56946013472474</v>
       </c>
       <c r="D18">
-        <v>4.055702921640131</v>
+        <v>7.206640755558611</v>
       </c>
       <c r="E18">
-        <v>9.042636321326979</v>
+        <v>13.96465160525664</v>
       </c>
       <c r="F18">
-        <v>48.43446398422002</v>
+        <v>48.3861811525388</v>
       </c>
       <c r="G18">
-        <v>2.01245854031313</v>
+        <v>3.699068688541915</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.777040345163575</v>
+        <v>11.23884229425478</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.141789544135391</v>
+        <v>9.53918076689448</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>36.80735698217032</v>
+        <v>37.55853491760423</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.31374320514997</v>
+        <v>13.56588595247156</v>
       </c>
       <c r="D19">
-        <v>4.055616787827518</v>
+        <v>7.20745519393721</v>
       </c>
       <c r="E19">
-        <v>9.028230099627656</v>
+        <v>13.96541022556537</v>
       </c>
       <c r="F19">
-        <v>48.24485055910364</v>
+        <v>48.35550711223603</v>
       </c>
       <c r="G19">
-        <v>2.013524768194515</v>
+        <v>3.699409451859707</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.770432866594144</v>
+        <v>11.24008863616215</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.14376433354329</v>
+        <v>9.540672236809419</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>36.66559657271001</v>
+        <v>37.53666791909159</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.47744966525194</v>
+        <v>13.58216793176924</v>
       </c>
       <c r="D20">
-        <v>4.056109699818343</v>
+        <v>7.203827084665053</v>
       </c>
       <c r="E20">
-        <v>9.093472942009326</v>
+        <v>13.96214926343796</v>
       </c>
       <c r="F20">
-        <v>49.09699168739049</v>
+        <v>48.49425157576233</v>
       </c>
       <c r="G20">
-        <v>2.008728913085458</v>
+        <v>3.697885094761882</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.800514460879073</v>
+        <v>11.23458904057303</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.134999659983097</v>
+        <v>9.534017703779316</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
-        <v>37.30282150047407</v>
+        <v>37.63562788101501</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.02883269257481</v>
+        <v>13.64031039274446</v>
       </c>
       <c r="D21">
-        <v>4.059685622683214</v>
+        <v>7.19228285467749</v>
       </c>
       <c r="E21">
-        <v>9.320136787100028</v>
+        <v>13.95386912761644</v>
       </c>
       <c r="F21">
-        <v>51.94127711275964</v>
+        <v>48.97249137689764</v>
       </c>
       <c r="G21">
-        <v>1.99262807533511</v>
+        <v>3.69292241837717</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.90789502773869</v>
+        <v>11.21802048871065</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.107725742461547</v>
+        <v>9.512659340151639</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>39.43220982541435</v>
+        <v>37.97763989797382</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.39047450035473</v>
+        <v>13.68084124487569</v>
       </c>
       <c r="D22">
-        <v>4.063556054148465</v>
+        <v>7.185218118467729</v>
       </c>
       <c r="E22">
-        <v>9.47414132680303</v>
+        <v>13.9504521990589</v>
       </c>
       <c r="F22">
-        <v>53.78811939482261</v>
+        <v>49.29366513159238</v>
       </c>
       <c r="G22">
-        <v>1.98207826269633</v>
+        <v>3.689796801958936</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.98308592229677</v>
+        <v>11.20861542338142</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.091570392699929</v>
+        <v>9.499443429866417</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>40.81670493690714</v>
+        <v>38.20799774611488</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.19731881298161</v>
+        <v>13.65897959643782</v>
       </c>
       <c r="D23">
-        <v>4.061342891945978</v>
+        <v>7.188944848577463</v>
       </c>
       <c r="E23">
-        <v>9.391387336335022</v>
+        <v>13.95209339001096</v>
       </c>
       <c r="F23">
-        <v>52.80337334569454</v>
+        <v>49.12148544161741</v>
       </c>
       <c r="G23">
-        <v>1.987713885117232</v>
+        <v>3.691454269784962</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.942475297566787</v>
+        <v>11.21350481907321</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.100036628094131</v>
+        <v>9.506429168724896</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>40.0783138683371</v>
+        <v>38.08444339419763</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.46845507289264</v>
+        <v>13.58126079885887</v>
       </c>
       <c r="D24">
-        <v>4.056075649343406</v>
+        <v>7.204023890857137</v>
       </c>
       <c r="E24">
-        <v>9.089862768297412</v>
+        <v>13.9623182724373</v>
       </c>
       <c r="F24">
-        <v>49.05027061459784</v>
+        <v>48.48658599641973</v>
       </c>
       <c r="G24">
-        <v>2.008992145567789</v>
+        <v>3.697968205414837</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.798839512938957</v>
+        <v>11.23488387031035</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.13547291130644</v>
+        <v>9.534379371277478</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>37.26787460170559</v>
+        <v>37.63015700569962</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.68639022542985</v>
+        <v>13.50848548590518</v>
       </c>
       <c r="D25">
-        <v>4.056348828884762</v>
+        <v>7.222357963615265</v>
       </c>
       <c r="E25">
-        <v>8.787942885877422</v>
+        <v>13.98190979126697</v>
       </c>
       <c r="F25">
-        <v>44.93973774452928</v>
+        <v>47.84118917545405</v>
       </c>
       <c r="G25">
-        <v>2.032052003115814</v>
+        <v>3.705504717520317</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.663516344156077</v>
+        <v>11.26405308227006</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.180561583541393</v>
+        <v>9.567733037336</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>34.19770252085972</v>
+        <v>37.17113856588063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_230/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.46456841828631</v>
+        <v>10.11390412059703</v>
       </c>
       <c r="D2">
-        <v>7.237647162246065</v>
+        <v>4.061093232933068</v>
       </c>
       <c r="E2">
-        <v>14.00369035395992</v>
+        <v>8.584017405316004</v>
       </c>
       <c r="F2">
-        <v>47.40230617507002</v>
+        <v>41.8554873589342</v>
       </c>
       <c r="G2">
-        <v>3.711498604867593</v>
+        <v>2.049334093637987</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.29078040900474</v>
+        <v>6.578906601835407</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.595067975462907</v>
+        <v>5.219385051381582</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>36.86143484149508</v>
+        <v>31.90081947306662</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.44089697468744</v>
+        <v>9.728676092597967</v>
       </c>
       <c r="D3">
-        <v>7.249130751239073</v>
+        <v>4.066905756955029</v>
       </c>
       <c r="E3">
-        <v>14.02303258333937</v>
+        <v>8.45660880977524</v>
       </c>
       <c r="F3">
-        <v>47.12862184932456</v>
+        <v>39.73185140175303</v>
       </c>
       <c r="G3">
-        <v>3.715841198117702</v>
+        <v>2.061322818551233</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.31216645505469</v>
+        <v>6.530139374856566</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.615335707911068</v>
+        <v>5.249089042151878</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>36.66990447118214</v>
+        <v>30.32349895012628</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.42938265462406</v>
+        <v>9.49391614080263</v>
       </c>
       <c r="D4">
-        <v>7.256736956642992</v>
+        <v>4.07168866030088</v>
       </c>
       <c r="E4">
-        <v>14.03716565015127</v>
+        <v>8.383509457200336</v>
       </c>
       <c r="F4">
-        <v>46.97262192089095</v>
+        <v>38.41366115092313</v>
       </c>
       <c r="G4">
-        <v>3.718646908430661</v>
+        <v>2.06884526054855</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.32691093684996</v>
+        <v>6.504182201759126</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.628643202279045</v>
+        <v>5.268968048287842</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>36.56157404316777</v>
+        <v>29.34646043477577</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.42545186324604</v>
+        <v>9.398775910285678</v>
       </c>
       <c r="D5">
-        <v>7.259976432875316</v>
+        <v>4.073934024270327</v>
       </c>
       <c r="E5">
-        <v>14.04349205974699</v>
+        <v>8.354984036768393</v>
       </c>
       <c r="F5">
-        <v>46.91212518869624</v>
+        <v>37.87338115348218</v>
       </c>
       <c r="G5">
-        <v>3.719825436473566</v>
+        <v>2.071954618906041</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.33332499675198</v>
+        <v>6.494572589362447</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.634283630441059</v>
+        <v>5.277477016337258</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>36.51978946809245</v>
+        <v>28.94651463110352</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.42484518937866</v>
+        <v>9.383012360000896</v>
       </c>
       <c r="D6">
-        <v>7.260522802078719</v>
+        <v>4.074324513261221</v>
       </c>
       <c r="E6">
-        <v>14.04457679044532</v>
+        <v>8.350322923225725</v>
       </c>
       <c r="F6">
-        <v>46.90226669068161</v>
+        <v>37.78349701564646</v>
       </c>
       <c r="G6">
-        <v>3.720023258950126</v>
+        <v>2.07247366930578</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.33441453733451</v>
+        <v>6.493034414802368</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.635233371458524</v>
+        <v>5.278914450982275</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>36.51299456900767</v>
+        <v>28.88000778404222</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.42932655763089</v>
+        <v>9.492630798392725</v>
       </c>
       <c r="D7">
-        <v>7.256780078595019</v>
+        <v>4.071717753661813</v>
       </c>
       <c r="E7">
-        <v>14.03724867492417</v>
+        <v>8.383119674164815</v>
       </c>
       <c r="F7">
-        <v>46.97179353550058</v>
+        <v>38.40638659393294</v>
       </c>
       <c r="G7">
-        <v>3.718662659852912</v>
+        <v>2.068887012476567</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.32699579719412</v>
+        <v>6.504048727549961</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.628718389690167</v>
+        <v>5.26908115633093</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767602</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>36.56100092582795</v>
+        <v>29.34107335212775</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.45578106520091</v>
+        <v>9.980753728866711</v>
       </c>
       <c r="D8">
-        <v>7.241491624922625</v>
+        <v>4.062839761691095</v>
       </c>
       <c r="E8">
-        <v>14.00989090444787</v>
+        <v>8.539005809899866</v>
       </c>
       <c r="F8">
-        <v>47.30546942562952</v>
+        <v>41.12646685365471</v>
       </c>
       <c r="G8">
-        <v>3.712967095336765</v>
+        <v>2.053436427964747</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.2978193922245</v>
+        <v>6.561243372383947</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.601877470073127</v>
+        <v>5.229283669077881</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>36.79349024983726</v>
+        <v>31.35891996200613</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.53150781846182</v>
+        <v>10.94934754712289</v>
       </c>
       <c r="D9">
-        <v>7.215904769877893</v>
+        <v>4.055516174901188</v>
       </c>
       <c r="E9">
-        <v>13.97416704116737</v>
+        <v>8.88669157565975</v>
       </c>
       <c r="F9">
-        <v>48.05310487567979</v>
+        <v>46.33335093106562</v>
       </c>
       <c r="G9">
-        <v>3.702897338804882</v>
+        <v>2.024249935423017</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.25341156141802</v>
+        <v>6.706651932792533</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.556067829806155</v>
+        <v>5.16448263079482</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
-        <v>37.32147138025261</v>
+        <v>35.23755348249406</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.60149387191252</v>
+        <v>11.66590198148703</v>
       </c>
       <c r="D10">
-        <v>7.199768752099516</v>
+        <v>4.057005714952703</v>
       </c>
       <c r="E10">
-        <v>13.95886894994027</v>
+        <v>9.169775348812676</v>
       </c>
       <c r="F10">
-        <v>48.65592705651245</v>
+        <v>50.0733752021661</v>
       </c>
       <c r="G10">
-        <v>3.696160297802366</v>
+        <v>2.003219411829209</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.22860026253219</v>
+        <v>6.836186664879571</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.526541753109306</v>
+        <v>5.125299599221499</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>37.75110129544031</v>
+        <v>38.03338365255875</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.63639464457916</v>
+        <v>11.99303630317445</v>
       </c>
       <c r="D11">
-        <v>7.193002898745464</v>
+        <v>4.059366800831365</v>
       </c>
       <c r="E11">
-        <v>13.95428940830525</v>
+        <v>9.3051143128066</v>
       </c>
       <c r="F11">
-        <v>48.9409917901105</v>
+        <v>51.75772237748978</v>
       </c>
       <c r="G11">
-        <v>3.693237113820094</v>
+        <v>1.993672159712702</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.21901114985897</v>
+        <v>6.900651585632716</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.513999979181243</v>
+        <v>5.109396815245208</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
-        <v>37.95507418711843</v>
+        <v>39.29468326108137</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.65004563244606</v>
+        <v>12.11712700680134</v>
       </c>
       <c r="D12">
-        <v>7.190523199770567</v>
+        <v>4.060522038384095</v>
       </c>
       <c r="E12">
-        <v>13.95289744902877</v>
+        <v>9.357364599240045</v>
       </c>
       <c r="F12">
-        <v>49.05042410277704</v>
+        <v>52.39343019045214</v>
       </c>
       <c r="G12">
-        <v>3.692150384744215</v>
+        <v>1.990052867411239</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.21562416779603</v>
+        <v>6.925917166654942</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.509378190022858</v>
+        <v>5.1036603366222</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>38.03349089720398</v>
+        <v>39.77104102129683</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.64708640699695</v>
+        <v>12.09039136540193</v>
       </c>
       <c r="D13">
-        <v>7.191053586948757</v>
+        <v>4.060261285962522</v>
       </c>
       <c r="E13">
-        <v>13.95318201306632</v>
+        <v>9.346066039623034</v>
       </c>
       <c r="F13">
-        <v>49.02679108287216</v>
+        <v>52.25660621302281</v>
       </c>
       <c r="G13">
-        <v>3.692383534264153</v>
+        <v>1.990832641745084</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.21634275281289</v>
+        <v>6.920436778903944</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.510367911024268</v>
+        <v>5.104882928732874</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>38.01655095156429</v>
+        <v>39.66849992392694</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.63750904012103</v>
+        <v>12.0032407000444</v>
       </c>
       <c r="D14">
-        <v>7.192797242649865</v>
+        <v>4.0594564889805</v>
       </c>
       <c r="E14">
-        <v>13.9541680327443</v>
+        <v>9.309392558503369</v>
       </c>
       <c r="F14">
-        <v>48.9499655354394</v>
+        <v>51.81006237838752</v>
       </c>
       <c r="G14">
-        <v>3.693147303550136</v>
+        <v>1.993374520134241</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.21872760616853</v>
+        <v>6.902712723253127</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.51361718886073</v>
+        <v>5.108919091189075</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>37.96150229263616</v>
+        <v>39.33389704149287</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.63169907231224</v>
+        <v>11.94988788485926</v>
       </c>
       <c r="D15">
-        <v>7.193876004016351</v>
+        <v>4.058998154471803</v>
       </c>
       <c r="E15">
-        <v>13.95481656350242</v>
+        <v>9.287061156819895</v>
       </c>
       <c r="F15">
-        <v>48.90309874599514</v>
+        <v>51.53627831990373</v>
       </c>
       <c r="G15">
-        <v>3.693617763188286</v>
+        <v>1.994930760280364</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.22022020260255</v>
+        <v>6.891969306717809</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.515624057686194</v>
+        <v>5.111428841328287</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>37.92793509483962</v>
+        <v>39.12878746018192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.59927419815448</v>
+        <v>11.64454952224281</v>
       </c>
       <c r="D16">
-        <v>7.20022245727421</v>
+        <v>4.056886850279136</v>
       </c>
       <c r="E16">
-        <v>13.95921612271155</v>
+        <v>9.161067263770082</v>
       </c>
       <c r="F16">
-        <v>48.63750923685408</v>
+        <v>49.96298094976127</v>
       </c>
       <c r="G16">
-        <v>3.696354171180194</v>
+        <v>2.00384318558391</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.22926110294041</v>
+        <v>6.832089935874719</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.527379254438854</v>
+        <v>5.126378313003118</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>37.73793862966065</v>
+        <v>37.95076073173998</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.58016340057848</v>
+        <v>11.45755491229236</v>
       </c>
       <c r="D17">
-        <v>7.204262780214568</v>
+        <v>4.056035461710633</v>
       </c>
       <c r="E17">
-        <v>13.96252464355456</v>
+        <v>9.085491682362143</v>
       </c>
       <c r="F17">
-        <v>48.4773028658658</v>
+        <v>48.99363632128574</v>
       </c>
       <c r="G17">
-        <v>3.698069022147965</v>
+        <v>2.009311183827144</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.23524228606841</v>
+        <v>6.796813136150023</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.534818266726242</v>
+        <v>5.136047702370011</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>37.62353220979354</v>
+        <v>37.22551412741669</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.56946013472474</v>
+        <v>11.35010616744021</v>
       </c>
       <c r="D18">
-        <v>7.206640755558611</v>
+        <v>4.055702921640072</v>
       </c>
       <c r="E18">
-        <v>13.96465160525664</v>
+        <v>9.042636321326937</v>
       </c>
       <c r="F18">
-        <v>48.3861811525388</v>
+        <v>48.43446398422006</v>
       </c>
       <c r="G18">
-        <v>3.699068688541915</v>
+        <v>2.01245854031313</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.23884229425478</v>
+        <v>6.777040345163562</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.53918076689448</v>
+        <v>5.141789544135344</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>37.55853491760423</v>
+        <v>36.80735698217035</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.56588595247156</v>
+        <v>11.31374320514993</v>
       </c>
       <c r="D19">
-        <v>7.20745519393721</v>
+        <v>4.055616787827399</v>
       </c>
       <c r="E19">
-        <v>13.96541022556537</v>
+        <v>9.028230099627633</v>
       </c>
       <c r="F19">
-        <v>48.35550711223603</v>
+        <v>48.24485055910364</v>
       </c>
       <c r="G19">
-        <v>3.699409451859707</v>
+        <v>2.013524768194781</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.24008863616215</v>
+        <v>6.770432866594152</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.540672236809419</v>
+        <v>5.143764333543328</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>37.53666791909159</v>
+        <v>36.66559657271002</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.58216793176924</v>
+        <v>11.47744966525192</v>
       </c>
       <c r="D20">
-        <v>7.203827084665053</v>
+        <v>4.056109699818232</v>
       </c>
       <c r="E20">
-        <v>13.96214926343796</v>
+        <v>9.093472942009232</v>
       </c>
       <c r="F20">
-        <v>48.49425157576233</v>
+        <v>49.09699168739047</v>
       </c>
       <c r="G20">
-        <v>3.697885094761882</v>
+        <v>2.008728913085588</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.23458904057303</v>
+        <v>6.800514460879</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.534017703779316</v>
+        <v>5.134999659982999</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>37.63562788101501</v>
+        <v>37.30282150047406</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.64031039274446</v>
+        <v>12.0288326925748</v>
       </c>
       <c r="D21">
-        <v>7.19228285467749</v>
+        <v>4.059685622683246</v>
       </c>
       <c r="E21">
-        <v>13.95386912761644</v>
+        <v>9.32013678710009</v>
       </c>
       <c r="F21">
-        <v>48.97249137689764</v>
+        <v>51.94127711275961</v>
       </c>
       <c r="G21">
-        <v>3.69292241837717</v>
+        <v>1.992628075335243</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.21802048871065</v>
+        <v>6.907895027738774</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.512659340151639</v>
+        <v>5.107725742461621</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>37.97763989797382</v>
+        <v>39.43220982541433</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.68084124487569</v>
+        <v>12.39047450035479</v>
       </c>
       <c r="D22">
-        <v>7.185218118467729</v>
+        <v>4.063556054148458</v>
       </c>
       <c r="E22">
-        <v>13.9504521990589</v>
+        <v>9.474141326803034</v>
       </c>
       <c r="F22">
-        <v>49.29366513159238</v>
+        <v>53.78811939482265</v>
       </c>
       <c r="G22">
-        <v>3.689796801958936</v>
+        <v>1.982078262696195</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.20861542338142</v>
+        <v>6.983085922296765</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.499443429866417</v>
+        <v>5.091570392699956</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>38.20799774611488</v>
+        <v>40.81670493690718</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.65897959643782</v>
+        <v>12.19731881298161</v>
       </c>
       <c r="D23">
-        <v>7.188944848577463</v>
+        <v>4.06134289194588</v>
       </c>
       <c r="E23">
-        <v>13.95209339001096</v>
+        <v>9.391387336335072</v>
       </c>
       <c r="F23">
-        <v>49.12148544161741</v>
+        <v>52.8033733456946</v>
       </c>
       <c r="G23">
-        <v>3.691454269784962</v>
+        <v>1.987713885117365</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.21350481907321</v>
+        <v>6.942475297566819</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.506429168724896</v>
+        <v>5.100036628094086</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>38.08444339419763</v>
+        <v>40.07831386833715</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.58126079885887</v>
+        <v>11.4684550728925</v>
       </c>
       <c r="D24">
-        <v>7.204023890857137</v>
+        <v>4.056075649343398</v>
       </c>
       <c r="E24">
-        <v>13.9623182724373</v>
+        <v>9.089862768297365</v>
       </c>
       <c r="F24">
-        <v>48.48658599641973</v>
+        <v>49.05027061459787</v>
       </c>
       <c r="G24">
-        <v>3.697968205414837</v>
+        <v>2.008992145567782</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.23488387031035</v>
+        <v>6.798839512938957</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.534379371277478</v>
+        <v>5.135472911306498</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>37.63015700569962</v>
+        <v>37.26787460170563</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.50848548590518</v>
+        <v>10.6863902254299</v>
       </c>
       <c r="D25">
-        <v>7.222357963615265</v>
+        <v>4.056348828884823</v>
       </c>
       <c r="E25">
-        <v>13.98190979126697</v>
+        <v>8.787942885877385</v>
       </c>
       <c r="F25">
-        <v>47.84118917545405</v>
+        <v>44.93973774452925</v>
       </c>
       <c r="G25">
-        <v>3.705504717520317</v>
+        <v>2.032052003115805</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.26405308227006</v>
+        <v>6.663516344156113</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.567733037336</v>
+        <v>5.180561583541396</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>37.17113856588063</v>
+        <v>34.19770252085972</v>
       </c>
     </row>
   </sheetData>
